--- a/mf-intelligence/data/processed/quant/quant_Infrastructure_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Infrastructure_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9.708546999999999</v>
+      </c>
+      <c r="E2" t="n">
         <v>9.346629999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.757272</v>
       </c>
-      <c r="F2" t="n">
-        <v>7.658724</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.5893579999999989</v>
+        <v>0.361917</v>
       </c>
       <c r="H2" t="n">
-        <v>1.687905999999999</v>
+        <v>0.951274999999999</v>
       </c>
     </row>
     <row r="3">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>9.707091</v>
+      </c>
+      <c r="E3" t="n">
         <v>9.13494</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.796008</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.365955</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.3389319999999998</v>
+        <v>0.5721509999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2310149999999993</v>
+        <v>0.9110829999999996</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>9.052569999999999</v>
+      </c>
+      <c r="E4" t="n">
         <v>8.664704</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.63518</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.919873000000001</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.02952400000000033</v>
+        <v>0.3878659999999989</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2551690000000004</v>
+        <v>0.4173899999999993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE907A01026</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Kalyani Steels Ltd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.524846999999999</v>
+        <v>6.182114</v>
       </c>
       <c r="E5" t="n">
-        <v>8.221378</v>
+        <v>6.077651</v>
       </c>
       <c r="F5" t="n">
-        <v>7.524506</v>
+        <v>5.868334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3034689999999998</v>
+        <v>0.104463</v>
       </c>
       <c r="H5" t="n">
-        <v>1.000341</v>
+        <v>0.3137800000000004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE907A01026</t>
+          <t>INE101I01011</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kalyani Steels Ltd</t>
+          <t>Afcons Infrastructure Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.077651</v>
+        <v>5.132306</v>
       </c>
       <c r="E6" t="n">
-        <v>5.868334</v>
+        <v>5.426595</v>
       </c>
       <c r="F6" t="n">
-        <v>6.36157</v>
+        <v>5.476188</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2093170000000004</v>
+        <v>-0.294289</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.283919</v>
+        <v>-0.3438819999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE101I01011</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Afcons Infrastructure Limited</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.426595</v>
+        <v>4.967335</v>
       </c>
       <c r="E7" t="n">
-        <v>5.476188</v>
+        <v>4.66744</v>
       </c>
       <c r="F7" t="n">
-        <v>5.860319</v>
+        <v>4.718243</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04959299999999978</v>
+        <v>0.2998950000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4337239999999998</v>
+        <v>0.2490920000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE868B01028</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>NCC Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.66744</v>
+        <v>4.567976</v>
       </c>
       <c r="E8" t="n">
-        <v>4.718243</v>
+        <v>4.535625</v>
       </c>
       <c r="F8" t="n">
-        <v>6.466866</v>
+        <v>4.681892</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05080300000000015</v>
+        <v>0.03235100000000024</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.799426</v>
+        <v>-0.1139160000000006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE868B01028</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCC Ltd</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.535625</v>
+        <v>4.507944</v>
       </c>
       <c r="E9" t="n">
-        <v>4.681892</v>
+        <v>4.528577</v>
       </c>
       <c r="F9" t="n">
-        <v>5.598654</v>
+        <v>1.500787</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1462670000000008</v>
+        <v>-0.02063300000000012</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.063029</v>
+        <v>3.007157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.528577</v>
+        <v>3.37757</v>
       </c>
       <c r="E10" t="n">
-        <v>1.500787</v>
+        <v>3.515915</v>
       </c>
       <c r="F10" t="n">
-        <v>1.576079</v>
+        <v>4.741101</v>
       </c>
       <c r="G10" t="n">
-        <v>3.02779</v>
+        <v>-0.1383450000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2.952498</v>
+        <v>-1.363531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.515915</v>
+        <v>3.24738</v>
       </c>
       <c r="E11" t="n">
-        <v>4.741101</v>
+        <v>3.181903</v>
       </c>
       <c r="F11" t="n">
-        <v>3.968668</v>
+        <v>3.236211</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.225185999999999</v>
+        <v>0.06547700000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.452753</v>
+        <v>0.01116900000000021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE059B01024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Simplex Infrastructures Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.181903</v>
+        <v>2.746279</v>
       </c>
       <c r="E12" t="n">
-        <v>3.236211</v>
+        <v>2.779596</v>
       </c>
       <c r="F12" t="n">
-        <v>3.264441</v>
+        <v>3.019951</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0543079999999998</v>
+        <v>-0.03331700000000026</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.082538</v>
+        <v>-0.2736719999999999</v>
       </c>
     </row>
     <row r="13">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>2.586681</v>
+      </c>
+      <c r="E13" t="n">
         <v>2.791836</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.001686</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.051472</v>
-      </c>
       <c r="G13" t="n">
-        <v>1.79015</v>
+        <v>-0.205155</v>
       </c>
       <c r="H13" t="n">
-        <v>1.740364</v>
+        <v>1.584995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE059B01024</t>
+          <t>INE347A01017</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Simplex Infrastructures Limited</t>
+          <t>Mangalam Cement Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.779596</v>
+        <v>2.444353</v>
       </c>
       <c r="E14" t="n">
-        <v>3.019951</v>
+        <v>2.168523</v>
       </c>
       <c r="F14" t="n">
-        <v>2.840387</v>
+        <v>1.926348</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2403549999999997</v>
+        <v>0.27583</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.06079100000000004</v>
+        <v>0.518005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE347A01017</t>
+          <t>INE665A01038</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mangalam Cement Limited</t>
+          <t>Swan Corp Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.168523</v>
+        <v>1.812936</v>
       </c>
       <c r="E15" t="n">
-        <v>1.926348</v>
+        <v>1.826816</v>
       </c>
       <c r="F15" t="n">
-        <v>2.045133</v>
+        <v>1.689564</v>
       </c>
       <c r="G15" t="n">
-        <v>0.242175</v>
+        <v>-0.01387999999999989</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1233900000000001</v>
+        <v>0.123372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE665A01038</t>
+          <t>INE464A01036</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Swan Corp Limited</t>
+          <t>Bharat Bijlee Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.826816</v>
+        <v>1.298112</v>
       </c>
       <c r="E16" t="n">
-        <v>1.689564</v>
+        <v>1.123699</v>
       </c>
       <c r="F16" t="n">
-        <v>1.706299</v>
+        <v>1.16802</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1372519999999999</v>
+        <v>0.1744129999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.120517</v>
+        <v>0.1300919999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE239D01028</t>
+          <t>INE191B01025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OM INFRA LIMITED</t>
+          <t>Welspun Corp Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.194647</v>
+        <v>1.179162</v>
       </c>
       <c r="E17" t="n">
-        <v>1.292113</v>
+        <v>1.193344</v>
       </c>
       <c r="F17" t="n">
-        <v>1.308332</v>
+        <v>1.212454</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09746600000000005</v>
+        <v>-0.01418199999999992</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.113685</v>
+        <v>-0.03329199999999988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE191B01025</t>
+          <t>INE725E01024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Welspun Corp Limited</t>
+          <t>The Orissa Minerals Development Co Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.193344</v>
+        <v>1.110608</v>
       </c>
       <c r="E18" t="n">
-        <v>1.212454</v>
+        <v>1.124926</v>
       </c>
       <c r="F18" t="n">
-        <v>1.319649</v>
+        <v>1.065621</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01910999999999996</v>
+        <v>-0.01431800000000005</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1263050000000001</v>
+        <v>0.04498700000000011</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE725E01024</t>
+          <t>INE239D01028</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Orissa Minerals Development Co Ltd</t>
+          <t>OM INFRA LIMITED</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.124926</v>
+        <v>1.057033</v>
       </c>
       <c r="E19" t="n">
-        <v>1.065621</v>
+        <v>1.194647</v>
       </c>
       <c r="F19" t="n">
-        <v>1.118824</v>
+        <v>1.292113</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05930500000000016</v>
+        <v>-0.1376140000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006102000000000052</v>
+        <v>-0.2350800000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE464A01036</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bharat Bijlee Limited</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.123699</v>
+        <v>1.047332</v>
       </c>
       <c r="E20" t="n">
-        <v>1.16802</v>
+        <v>0.65715</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1804</v>
+        <v>0.614658</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.04432100000000005</v>
+        <v>0.3901819999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.05670099999999989</v>
+        <v>0.4326739999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>0.927673</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.871194</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>5.782988</v>
       </c>
-      <c r="F21" t="n">
-        <v>8.313412</v>
-      </c>
       <c r="G21" t="n">
-        <v>-4.911794</v>
+        <v>0.05647899999999995</v>
       </c>
       <c r="H21" t="n">
-        <v>-7.442218</v>
+        <v>-4.855314999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>0.780386</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.8710830000000001</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.806517</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.783232</v>
-      </c>
       <c r="G22" t="n">
-        <v>0.06456600000000001</v>
+        <v>-0.09069700000000003</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08785100000000001</v>
+        <v>-0.02613100000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE219X23014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Limited</t>
+          <t>India Grid Trust (INVIT)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.65715</v>
+        <v>0.686119</v>
       </c>
       <c r="E23" t="n">
-        <v>0.614658</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.58827</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04249199999999997</v>
+        <v>0.686119</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06888000000000005</v>
+        <v>0.686119</v>
       </c>
     </row>
     <row r="24">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>0.146996</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.14431</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.463241</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.488493</v>
-      </c>
       <c r="G24" t="n">
-        <v>-0.318931</v>
+        <v>0.002685999999999994</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.344183</v>
+        <v>-0.316245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.768339</v>
+        <v>2.951195</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.768339</v>
+        <v>-2.951195</v>
       </c>
     </row>
     <row r="26">
@@ -1263,27 +1263,27 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.034942</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>-0.034942</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.951195</v>
+        <v>8.524846999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>2.776239</v>
+        <v>8.221378</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.951195</v>
+        <v>-8.524846999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.776239</v>
+        <v>-8.221378</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Infrastructure_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Infrastructure_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.708546999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.346629999999999</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.757272</v>
-      </c>
       <c r="G2" t="n">
+        <v>7.658724</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.361917</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.951274999999999</v>
+      <c r="I2" t="n">
+        <v>2.049822999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.707091</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.13494</v>
       </c>
-      <c r="F3" t="n">
-        <v>8.796008</v>
-      </c>
       <c r="G3" t="n">
+        <v>9.365955</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5721509999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.9110829999999996</v>
+      <c r="I3" t="n">
+        <v>0.3411360000000005</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>9.052569999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.664704</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.63518</v>
-      </c>
       <c r="G4" t="n">
+        <v>8.919873000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3878659999999989</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.4173899999999993</v>
+      <c r="I4" t="n">
+        <v>0.1326969999999985</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>6.182114</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.077651</v>
       </c>
-      <c r="F5" t="n">
-        <v>5.868334</v>
-      </c>
       <c r="G5" t="n">
+        <v>6.36157</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.104463</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.3137800000000004</v>
+      <c r="I5" t="n">
+        <v>-0.1794560000000001</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>5.132306</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.426595</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.476188</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.860319</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.294289</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.3438819999999998</v>
+      <c r="I6" t="n">
+        <v>-0.7280129999999998</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>4.967335</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.66744</v>
       </c>
-      <c r="F7" t="n">
-        <v>4.718243</v>
-      </c>
       <c r="G7" t="n">
+        <v>6.466866</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2998950000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2490920000000001</v>
+      <c r="I7" t="n">
+        <v>-1.499530999999999</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>4.567976</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.535625</v>
       </c>
-      <c r="F8" t="n">
-        <v>4.681892</v>
-      </c>
       <c r="G8" t="n">
+        <v>5.598654</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.03235100000000024</v>
       </c>
-      <c r="H8" t="n">
-        <v>-0.1139160000000006</v>
+      <c r="I8" t="n">
+        <v>-1.030678</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.507944</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.528577</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.500787</v>
-      </c>
       <c r="G9" t="n">
+        <v>1.576079</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.02063300000000012</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.007157</v>
+      <c r="I9" t="n">
+        <v>2.931865</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.37757</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.515915</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.741101</v>
-      </c>
       <c r="G10" t="n">
+        <v>3.968668</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.1383450000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>-1.363531</v>
+      <c r="I10" t="n">
+        <v>-0.5910980000000001</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.24738</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.181903</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.236211</v>
-      </c>
       <c r="G11" t="n">
+        <v>3.264441</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.06547700000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.01116900000000021</v>
+      <c r="I11" t="n">
+        <v>-0.01706099999999999</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.746279</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.779596</v>
       </c>
-      <c r="F12" t="n">
-        <v>3.019951</v>
-      </c>
       <c r="G12" t="n">
+        <v>2.840387</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.03331700000000026</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.2736719999999999</v>
+      <c r="I12" t="n">
+        <v>-0.0941080000000003</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.586681</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.791836</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.001686</v>
-      </c>
       <c r="G13" t="n">
+        <v>1.051472</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.205155</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.584995</v>
+      <c r="I13" t="n">
+        <v>1.535209</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2.444353</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.168523</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.926348</v>
-      </c>
       <c r="G14" t="n">
+        <v>2.045133</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.27583</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.518005</v>
+      <c r="I14" t="n">
+        <v>0.3992200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.812936</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.826816</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.689564</v>
-      </c>
       <c r="G15" t="n">
+        <v>1.706299</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.01387999999999989</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.123372</v>
+      <c r="I15" t="n">
+        <v>0.1066370000000001</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.298112</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.123699</v>
       </c>
-      <c r="F16" t="n">
-        <v>1.16802</v>
-      </c>
       <c r="G16" t="n">
+        <v>1.1804</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1744129999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.1300919999999999</v>
+      <c r="I16" t="n">
+        <v>0.117712</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.179162</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.193344</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.212454</v>
-      </c>
       <c r="G17" t="n">
+        <v>1.319649</v>
+      </c>
+      <c r="H17" t="n">
         <v>-0.01418199999999992</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.03329199999999988</v>
+      <c r="I17" t="n">
+        <v>-0.140487</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1088,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.110608</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.124926</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.065621</v>
-      </c>
       <c r="G18" t="n">
+        <v>1.118824</v>
+      </c>
+      <c r="H18" t="n">
         <v>-0.01431800000000005</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.04498700000000011</v>
+      <c r="I18" t="n">
+        <v>-0.008216000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1035,20 +1125,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.057033</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.194647</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.292113</v>
-      </c>
       <c r="G19" t="n">
+        <v>1.308332</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.1376140000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>-0.2350800000000002</v>
+      <c r="I19" t="n">
+        <v>-0.2512990000000002</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.047332</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.65715</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.614658</v>
-      </c>
       <c r="G20" t="n">
+        <v>0.58827</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.3901819999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.4326739999999999</v>
+      <c r="I20" t="n">
+        <v>0.459062</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>0.927673</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.871194</v>
       </c>
-      <c r="F21" t="n">
-        <v>5.782988</v>
-      </c>
       <c r="G21" t="n">
+        <v>8.313412</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.05647899999999995</v>
       </c>
-      <c r="H21" t="n">
-        <v>-4.855314999999999</v>
+      <c r="I21" t="n">
+        <v>-7.385738999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1131,20 +1236,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>0.780386</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.8710830000000001</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.806517</v>
-      </c>
       <c r="G22" t="n">
+        <v>0.783232</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.09069700000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>-0.02613100000000002</v>
+      <c r="I22" t="n">
+        <v>-0.002846000000000015</v>
       </c>
     </row>
     <row r="23">
@@ -1163,21 +1273,26 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0.686119</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.686119</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0.686119</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.686119</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1195,20 +1310,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>0.146996</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.14431</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.463241</v>
-      </c>
       <c r="G24" t="n">
+        <v>0.488493</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.002685999999999994</v>
       </c>
-      <c r="H24" t="n">
-        <v>-0.316245</v>
+      <c r="I24" t="n">
+        <v>-0.3414970000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1227,31 +1347,36 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.951195</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>2.776239</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="n">
-        <v>-2.951195</v>
+      <c r="I25" t="n">
+        <v>-2.776239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,20 +1384,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.034942</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>2.768339</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>-0.034942</v>
+      <c r="I26" t="n">
+        <v>-2.768339</v>
       </c>
     </row>
     <row r="27">
@@ -1291,20 +1421,25 @@
           <t>quant Infrastructure Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>8.524846999999999</v>
       </c>
-      <c r="F27" t="n">
-        <v>8.221378</v>
-      </c>
       <c r="G27" t="n">
+        <v>7.524506</v>
+      </c>
+      <c r="H27" t="n">
         <v>-8.524846999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>-8.221378</v>
+      <c r="I27" t="n">
+        <v>-7.524506</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Infrastructure_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Infrastructure_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.708546999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.346629999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7.658724</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.361917</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2.049822999999999</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.707091</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.13494</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.365955</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.5721509999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.3411360000000005</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.052569999999999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.664704</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8.919873000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.3878659999999989</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.1326969999999985</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.182114</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.077651</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.36157</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.104463</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.1794560000000001</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.132306</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.426595</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.860319</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.294289</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.7280129999999998</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.967335</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.66744</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6.466866</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.2998950000000002</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-1.499530999999999</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.567976</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.535625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.598654</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.03235100000000024</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-1.030678</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.507944</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.528577</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1.576079</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.02063300000000012</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>2.931865</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.37757</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.515915</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3.968668</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-0.1383450000000002</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.5910980000000001</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.24738</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.181903</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.264441</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.06547700000000001</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-0.01706099999999999</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.746279</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.779596</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.840387</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.03331700000000026</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-0.0941080000000003</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.586681</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.791836</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1.051472</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.205155</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1.535209</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.444353</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.168523</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.045133</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.27583</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.3992200000000001</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.812936</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.826816</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.706299</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-0.01387999999999989</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.1066370000000001</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.298112</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.123699</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1.1804</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.1744129999999999</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.117712</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.179162</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.193344</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1.319649</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-0.01418199999999992</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-0.140487</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.110608</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.124926</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1.118824</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.01431800000000005</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-0.008216000000000001</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.057033</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.194647</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.308332</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.1376140000000001</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.2512990000000002</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.047332</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.65715</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.58827</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.3901819999999999</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.459062</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.927673</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.871194</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>8.313412</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.05647899999999995</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-7.385738999999999</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.780386</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.8710830000000001</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.783232</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.09069700000000003</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-0.002846000000000015</v>
       </c>
     </row>
@@ -1270,29 +1380,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.686119</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.686119</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.686119</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.686119</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.146996</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.14431</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.488493</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.002685999999999994</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.3414970000000001</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.776239</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-2.776239</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.768339</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-2.768339</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Infrastructure Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Infrastructure Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>8.524846999999999</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>7.524506</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-8.524846999999999</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-7.524506</v>
       </c>
     </row>
